--- a/data/trans_dic/P3A_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Clase-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -724,62 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>23,57; 32,21</t>
+          <t>23,89; 32,24</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>30,93; 40,83</t>
+          <t>31,28; 40,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>35,42; 44,98</t>
+          <t>34,82; 44,53</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>34,25; 43,46</t>
+          <t>34,51; 43,63</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>23,02; 33,36</t>
+          <t>23,3; 33,71</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>25,33; 35,57</t>
+          <t>24,9; 35,76</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>27,59; 37,57</t>
+          <t>27,7; 37,84</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>29,88; 37,36</t>
+          <t>29,76; 37,6</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>24,66; 31,59</t>
+          <t>24,79; 31,58</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>30,56; 37,21</t>
+          <t>30,17; 37,59</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>33,2; 39,92</t>
+          <t>32,89; 40,3</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>33,32; 39,15</t>
+          <t>33,43; 39,11</t>
         </is>
       </c>
     </row>
@@ -864,62 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>23,03; 32,79</t>
+          <t>23,16; 33,2</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>31,5; 41,8</t>
+          <t>31,81; 41,35</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>42,24; 53,1</t>
+          <t>42,31; 53,27</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>30,39; 39,33</t>
+          <t>30,38; 39,85</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>18,66; 27,55</t>
+          <t>18,46; 27,6</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,02; 28,87</t>
+          <t>18,87; 28,75</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>27,95; 37,56</t>
+          <t>27,9; 38,15</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>24,63; 32,75</t>
+          <t>24,71; 32,3</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>22,27; 28,76</t>
+          <t>22,37; 28,55</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>27,33; 34,28</t>
+          <t>27,17; 34,28</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>36,61; 44,08</t>
+          <t>36,33; 43,86</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>28,68; 34,9</t>
+          <t>28,72; 34,89</t>
         </is>
       </c>
     </row>
@@ -1004,62 +1005,62 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>21,3; 28,6</t>
+          <t>21,02; 28,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>27,6; 35,28</t>
+          <t>27,89; 35,32</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>33,54; 42,06</t>
+          <t>33,48; 41,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>8,46; 33,41</t>
+          <t>6,92; 33,15</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>7,91; 17,86</t>
+          <t>7,84; 17,41</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>15,5; 25,63</t>
+          <t>15,09; 24,92</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,77; 35,01</t>
+          <t>20,09; 34,92</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>19,7; 30,87</t>
+          <t>19,42; 30,12</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>18,84; 25,15</t>
+          <t>19,01; 24,96</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25,18; 31,23</t>
+          <t>25,18; 31,38</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>31,72; 39,24</t>
+          <t>31,62; 39,13</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>8,63; 30,83</t>
+          <t>8,54; 30,77</t>
         </is>
       </c>
     </row>
@@ -1144,62 +1145,62 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>18,11; 22,82</t>
+          <t>18,09; 22,96</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>24,07; 29,57</t>
+          <t>24,14; 29,53</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>32,03; 37,92</t>
+          <t>32,33; 38,07</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>27,07; 32,71</t>
+          <t>26,7; 32,61</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>10,57; 15,96</t>
+          <t>10,67; 15,64</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>15,6; 21,51</t>
+          <t>16,12; 21,75</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,82; 23,68</t>
+          <t>17,91; 23,64</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>10,99; 27,81</t>
+          <t>11,09; 27,85</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,14; 19,53</t>
+          <t>16,04; 19,57</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21,39; 25,6</t>
+          <t>21,73; 25,83</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>26,87; 31,11</t>
+          <t>27,01; 31,17</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>18,51; 29,44</t>
+          <t>18,62; 29,42</t>
         </is>
       </c>
     </row>
@@ -1284,62 +1285,62 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 21,43</t>
+          <t>13,22; 21,43</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>19,87; 27,39</t>
+          <t>19,86; 27,68</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>19,72; 26,64</t>
+          <t>19,83; 26,59</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>19,25; 27,83</t>
+          <t>19,53; 27,89</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>5,7; 10,22</t>
+          <t>5,82; 10,25</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>8,68; 13,48</t>
+          <t>8,78; 13,44</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>11,18; 15,92</t>
+          <t>11,04; 16,07</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>12,95; 20,32</t>
+          <t>12,75; 20,34</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>9,35; 13,61</t>
+          <t>9,21; 13,5</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>14,07; 18,18</t>
+          <t>14,03; 17,98</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>15,63; 20,0</t>
+          <t>15,87; 19,97</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>15,91; 22,07</t>
+          <t>15,95; 21,98</t>
         </is>
       </c>
     </row>
@@ -1424,62 +1425,62 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 3,15</t>
+          <t>0,0; 3,09</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>0,0; 1,9</t>
+          <t>0,0; 1,95</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>0,39; 3,58</t>
+          <t>0,39; 3,43</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>0,68; 6,95</t>
+          <t>0,79; 6,75</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>4,74; 7,26</t>
+          <t>4,58; 7,37</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>5,39; 8,45</t>
+          <t>5,38; 8,35</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>7,96; 11,67</t>
+          <t>7,99; 11,72</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>7,09; 10,75</t>
+          <t>7,19; 10,76</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>3,8; 6,0</t>
+          <t>3,91; 6,26</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>4,34; 6,85</t>
+          <t>4,4; 6,77</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>6,66; 9,66</t>
+          <t>6,52; 9,41</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>5,87; 8,87</t>
+          <t>5,8; 9,09</t>
         </is>
       </c>
     </row>
@@ -1564,62 +1565,62 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>19,49; 22,42</t>
+          <t>19,41; 22,31</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>26,02; 29,0</t>
+          <t>25,95; 29,29</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>30,91; 34,17</t>
+          <t>30,94; 34,32</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>20,17; 29,68</t>
+          <t>21,57; 29,77</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>10,9; 13,1</t>
+          <t>10,91; 13,1</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>13,67; 16,21</t>
+          <t>13,6; 16,02</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>17,21; 19,91</t>
+          <t>17,28; 19,85</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>16,56; 21,98</t>
+          <t>16,24; 21,95</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>15,41; 17,27</t>
+          <t>15,38; 17,32</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>20,0; 22,12</t>
+          <t>20,13; 22,19</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>24,27; 26,41</t>
+          <t>24,4; 26,48</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>20,56; 25,27</t>
+          <t>19,63; 25,26</t>
         </is>
       </c>
     </row>
@@ -1646,4 +1647,1630 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N25"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Hogares en los que las tareas domésticas las realiza principalmente el/la entrevistado/a junto con su pareja</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Grupo I y II</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>445</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>132296</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>156826</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>171165</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>196011</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>86546</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>96129</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>113152</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>149616</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>218842</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>252955</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>284317</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>345627</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>112977; 152484</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>136763; 177818</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>149078; 190621</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>174334; 220434</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>71446; 103374</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>78313; 112449</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>96143; 131315</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>132950; 167999</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>193234; 246209</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>226810; 282519</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>254972; 312373</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>318283; 372280</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Grupo III</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>102016</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>152689</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>179815</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>156479</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>85904</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>79830</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>122514</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>108996</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>187920</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>232519</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>302330</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>265475</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>84983; 121830</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>133217; 173185</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>159622; 200957</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>137232; 180030</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>68655; 102622</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>63782; 97189</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>103871; 142028</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>94527; 123570</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>165280; 210938</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>205632; 259467</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>272311; 328702</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>239604; 291136</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Grupo IV y V</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>133863</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>198988</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>197401</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>135209</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>20371</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>51361</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>45262</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>40361</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>154234</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>250349</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>242663</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>175571</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>114004; 154967</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>175520; 222286</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>174123; 218303</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>46242; 221542</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>13152; 29219</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>39256; 64828</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>33382; 58005</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>32301; 50108</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>135034; 177251</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>223976; 279174</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>217012; 268534</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>71253; 256824</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VI</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>546</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>252960</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>310856</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>401706</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>307276</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>93644</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>141494</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>169323</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>208737</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>346604</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>452350</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>571028</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>516013</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>223955; 284315</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>279800; 342223</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>370289; 435993</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>276309; 337506</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>76046; 111487</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>123226; 166291</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>147199; 194268</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>108485; 272370</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>312933; 381898</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>418108; 496916</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>531338; 613221</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>374711; 592169</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Grupo VII</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>59212</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>120358</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>143072</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>111214</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>44299</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>83080</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>98260</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>145260</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>103511</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>203438</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>241332</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>256473</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>46357; 75117</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>101183; 141026</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>123078; 165027</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>92768; 132468</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>33109; 58270</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>66829; 102362</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>81412; 118459</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>107264; 171112</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>84687; 124062</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>178286; 228530</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>215485; 271203</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>209963; 289295</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>No ha trabajado</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="F19" s="2" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="G19" s="2" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="H19" s="2" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="I19" s="2" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="J19" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="K19" s="2" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>2297</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>1030</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>4096</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>6182</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>73885</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>75160</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>105423</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>66363</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>76182</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>76189</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>109519</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>72545</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>0; 9228</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>0; 5213</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>1100; 9780</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>1904; 16229</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>57101; 91797</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>59690; 92639</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>86457; 126858</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>54705; 81901</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>60316; 96718</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>60576; 93203</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>89149; 128700</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>58072; 91116</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>647</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>881</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>1034</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>973</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>486</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>634</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>1135</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>1044</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>1367</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>1668</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>2108</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>682645</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>940747</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>1097255</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>912372</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>404648</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>527053</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>653934</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>719332</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>1087293</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>1467801</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>1751189</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>1631703</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>634433; 729533</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>887559; 1002050</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>1044671; 1158825</t>
+        </is>
+      </c>
+      <c r="F24" s="2" t="inlineStr">
+        <is>
+          <t>727956; 1004966</t>
+        </is>
+      </c>
+      <c r="G24" s="2" t="inlineStr">
+        <is>
+          <t>368193; 441834</t>
+        </is>
+      </c>
+      <c r="H24" s="2" t="inlineStr">
+        <is>
+          <t>482615; 568257</t>
+        </is>
+      </c>
+      <c r="I24" s="2" t="inlineStr">
+        <is>
+          <t>609324; 700156</t>
+        </is>
+      </c>
+      <c r="J24" s="2" t="inlineStr">
+        <is>
+          <t>580689; 784895</t>
+        </is>
+      </c>
+      <c r="K24" s="2" t="inlineStr">
+        <is>
+          <t>1021891; 1150716</t>
+        </is>
+      </c>
+      <c r="L24" s="2" t="inlineStr">
+        <is>
+          <t>1402730; 1546430</t>
+        </is>
+      </c>
+      <c r="M24" s="2" t="inlineStr">
+        <is>
+          <t>1684260; 1828041</t>
+        </is>
+      </c>
+      <c r="N24" s="2" t="inlineStr">
+        <is>
+          <t>1364778; 1756426</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="11">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/data/trans_dic/P3A_R1-Clase-trans_dic.xlsx
+++ b/data/trans_dic/P3A_R1-Clase-trans_dic.xlsx
@@ -1347,7 +1347,7 @@
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -2837,7 +2837,7 @@
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
         <is>
-          <t>No ha trabajado</t>
+          <t>6.0</t>
         </is>
       </c>
       <c r="B19" s="3" t="inlineStr">
